--- a/roster.xlsx
+++ b/roster.xlsx
@@ -650,6 +650,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d-mmm"/>
+  </numFmts>
   <fonts count="10">
     <font>
       <sz val="10.0"/>
@@ -1288,7 +1291,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -1362,7 +1365,10 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="6" numFmtId="16" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="7" fillId="2" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1422,6 +1428,9 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="13" fillId="2" fontId="6" numFmtId="16" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="2" fontId="6" numFmtId="16" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="2" fontId="6" numFmtId="16" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1479,7 +1488,10 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="15" fillId="7" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1899,12 +1911,10 @@
       <c r="A8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="13">
-        <v>43135.0</v>
-      </c>
-      <c r="C8" s="13">
-        <v>43142.0</v>
-      </c>
+      <c r="B8" s="25">
+        <v>43143.0</v>
+      </c>
+      <c r="C8" s="13"/>
       <c r="D8" s="13">
         <v>43149.0</v>
       </c>
@@ -1954,49 +1964,49 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="L9" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="26" t="s">
+      <c r="N9" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="O9" s="27" t="s">
+      <c r="O9" s="28" t="s">
         <v>38</v>
       </c>
       <c r="P9" s="4"/>
@@ -2012,49 +2022,49 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="29" t="s">
+      <c r="L10" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="29" t="s">
+      <c r="M10" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="29" t="s">
+      <c r="N10" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="O10" s="30" t="s">
+      <c r="O10" s="31" t="s">
         <v>43</v>
       </c>
       <c r="P10" s="4"/>
@@ -2070,49 +2080,49 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="L11" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="32" t="s">
+      <c r="M11" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="N11" s="32" t="s">
+      <c r="N11" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="33" t="s">
+      <c r="O11" s="34" t="s">
         <v>45</v>
       </c>
       <c r="P11" s="4"/>
@@ -2128,49 +2138,49 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="35" t="s">
+      <c r="J12" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="35" t="s">
+      <c r="L12" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="M12" s="35" t="s">
+      <c r="M12" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="N12" s="35" t="s">
+      <c r="N12" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="O12" s="36" t="s">
+      <c r="O12" s="37" t="s">
         <v>49</v>
       </c>
       <c r="P12" s="4"/>
@@ -2186,49 +2196,49 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="29" t="s">
+      <c r="L13" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="M13" s="29" t="s">
+      <c r="M13" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N13" s="29" t="s">
+      <c r="N13" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="O13" s="30" t="s">
+      <c r="O13" s="31" t="s">
         <v>47</v>
       </c>
       <c r="P13" s="4"/>
@@ -2244,49 +2254,49 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="J14" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="L14" s="38" t="s">
+      <c r="L14" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="M14" s="38" t="s">
+      <c r="M14" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="N14" s="38" t="s">
+      <c r="N14" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="O14" s="39" t="s">
+      <c r="O14" s="40" t="s">
         <v>59</v>
       </c>
       <c r="P14" s="4"/>
@@ -2302,21 +2312,21 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="42"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="43"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -2330,49 +2340,47 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="44">
-        <v>43135.0</v>
-      </c>
-      <c r="C16" s="44">
-        <v>43142.0</v>
-      </c>
-      <c r="D16" s="44">
+      <c r="B16" s="45">
+        <v>43143.0</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46">
         <v>43149.0</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="46">
         <v>43156.0</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="46">
         <v>43163.0</v>
       </c>
-      <c r="G16" s="44">
+      <c r="G16" s="46">
         <v>43170.0</v>
       </c>
-      <c r="H16" s="44">
+      <c r="H16" s="46">
         <v>43177.0</v>
       </c>
-      <c r="I16" s="44">
+      <c r="I16" s="46">
         <v>43184.0</v>
       </c>
-      <c r="J16" s="44">
+      <c r="J16" s="46">
         <v>43189.0</v>
       </c>
-      <c r="K16" s="44">
+      <c r="K16" s="46">
         <v>43191.0</v>
       </c>
-      <c r="L16" s="44">
+      <c r="L16" s="46">
         <v>43198.0</v>
       </c>
-      <c r="M16" s="44">
+      <c r="M16" s="46">
         <v>43205.0</v>
       </c>
-      <c r="N16" s="44">
+      <c r="N16" s="46">
         <v>43212.0</v>
       </c>
-      <c r="O16" s="45">
+      <c r="O16" s="47">
         <v>43219.0</v>
       </c>
       <c r="P16" s="4"/>
@@ -2388,49 +2396,49 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="26" t="s">
+      <c r="K17" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="26" t="s">
+      <c r="L17" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="M17" s="26" t="s">
+      <c r="M17" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="26" t="s">
+      <c r="N17" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="O17" s="27" t="s">
+      <c r="O17" s="28" t="s">
         <v>38</v>
       </c>
       <c r="P17" s="4"/>
@@ -2446,49 +2454,49 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="29" t="s">
+      <c r="L18" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="M18" s="29" t="s">
+      <c r="M18" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="N18" s="29" t="s">
+      <c r="N18" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="O18" s="30" t="s">
+      <c r="O18" s="31" t="s">
         <v>62</v>
       </c>
       <c r="P18" s="4"/>
@@ -2504,49 +2512,49 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="K19" s="32" t="s">
+      <c r="K19" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="L19" s="32" t="s">
+      <c r="L19" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="M19" s="32" t="s">
+      <c r="M19" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="N19" s="32" t="s">
+      <c r="N19" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="O19" s="33" t="s">
+      <c r="O19" s="34" t="s">
         <v>64</v>
       </c>
       <c r="P19" s="4"/>
@@ -2562,49 +2570,49 @@
       <c r="Z19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="I20" s="35" t="s">
+      <c r="I20" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J20" s="35" t="s">
+      <c r="J20" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="K20" s="35" t="s">
+      <c r="K20" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="L20" s="35" t="s">
+      <c r="L20" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="M20" s="35" t="s">
+      <c r="M20" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="N20" s="35" t="s">
+      <c r="N20" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="36" t="s">
+      <c r="O20" s="37" t="s">
         <v>80</v>
       </c>
       <c r="P20" s="4"/>
@@ -2620,49 +2628,49 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="35" t="s">
+      <c r="I21" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="J21" s="35" t="s">
+      <c r="J21" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="K21" s="35" t="s">
+      <c r="K21" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="L21" s="35" t="s">
+      <c r="L21" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="M21" s="35" t="s">
+      <c r="M21" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="N21" s="35" t="s">
+      <c r="N21" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="O21" s="36" t="s">
+      <c r="O21" s="37" t="s">
         <v>90</v>
       </c>
       <c r="P21" s="4"/>
@@ -2678,49 +2686,49 @@
       <c r="Z21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="H22" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="29" t="s">
+      <c r="I22" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="J22" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="29" t="s">
+      <c r="K22" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="L22" s="29" t="s">
+      <c r="L22" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="M22" s="29" t="s">
+      <c r="M22" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="N22" s="29" t="s">
+      <c r="N22" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="O22" s="30" t="s">
+      <c r="O22" s="31" t="s">
         <v>20</v>
       </c>
       <c r="P22" s="4"/>
@@ -2736,23 +2744,23 @@
       <c r="Z22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="50"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -2766,23 +2774,23 @@
       <c r="Z23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="50"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -2796,49 +2804,49 @@
       <c r="Z24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="F25" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="50" t="s">
+      <c r="G25" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="H25" s="50" t="s">
+      <c r="H25" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="I25" s="50" t="s">
+      <c r="I25" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="J25" s="50" t="s">
+      <c r="J25" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="K25" s="50" t="s">
+      <c r="K25" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="L25" s="50" t="s">
+      <c r="L25" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="M25" s="50" t="s">
+      <c r="M25" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="N25" s="50" t="s">
+      <c r="N25" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="O25" s="51" t="s">
+      <c r="O25" s="53" t="s">
         <v>105</v>
       </c>
       <c r="P25" s="4"/>
@@ -2854,49 +2862,49 @@
       <c r="Z25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="G26" s="50" t="s">
+      <c r="G26" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="I26" s="50" t="s">
+      <c r="I26" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="J26" s="50" t="s">
+      <c r="J26" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="K26" s="50" t="s">
+      <c r="K26" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="L26" s="50" t="s">
+      <c r="L26" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="M26" s="50" t="s">
+      <c r="M26" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="N26" s="50" t="s">
+      <c r="N26" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="O26" s="51" t="s">
+      <c r="O26" s="53" t="s">
         <v>107</v>
       </c>
       <c r="P26" s="4"/>
@@ -2912,49 +2920,49 @@
       <c r="Z26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="H27" s="50" t="s">
+      <c r="H27" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="50" t="s">
+      <c r="I27" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="J27" s="50" t="s">
+      <c r="J27" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="K27" s="50" t="s">
+      <c r="K27" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="L27" s="50" t="s">
+      <c r="L27" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="M27" s="50" t="s">
+      <c r="M27" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="N27" s="50" t="s">
+      <c r="N27" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="O27" s="51" t="s">
+      <c r="O27" s="53" t="s">
         <v>89</v>
       </c>
       <c r="P27" s="4"/>
@@ -2970,49 +2978,49 @@
       <c r="Z27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="53" t="s">
+      <c r="D28" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="53" t="s">
+      <c r="E28" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="53" t="s">
+      <c r="F28" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="G28" s="53" t="s">
+      <c r="G28" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="H28" s="53" t="s">
+      <c r="H28" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="I28" s="53" t="s">
+      <c r="I28" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="J28" s="53" t="s">
+      <c r="J28" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="53" t="s">
+      <c r="K28" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="L28" s="53" t="s">
+      <c r="L28" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="M28" s="53" t="s">
+      <c r="M28" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="N28" s="53" t="s">
+      <c r="N28" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="O28" s="54" t="s">
+      <c r="O28" s="56" t="s">
         <v>116</v>
       </c>
       <c r="P28" s="4"/>
@@ -3028,49 +3036,49 @@
       <c r="Z28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="G29" s="55" t="s">
+      <c r="G29" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="H29" s="55" t="s">
+      <c r="H29" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="I29" s="55" t="s">
+      <c r="I29" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="J29" s="55" t="s">
+      <c r="J29" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="55" t="s">
+      <c r="K29" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="L29" s="55" t="s">
+      <c r="L29" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="M29" s="55" t="s">
+      <c r="M29" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="N29" s="55" t="s">
+      <c r="N29" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="O29" s="56" t="s">
+      <c r="O29" s="58" t="s">
         <v>124</v>
       </c>
       <c r="P29" s="4"/>
@@ -3086,49 +3094,49 @@
       <c r="Z29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="58" t="s">
+      <c r="D30" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="58" t="s">
+      <c r="E30" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="F30" s="58" t="s">
+      <c r="F30" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="58" t="s">
+      <c r="G30" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="58" t="s">
+      <c r="H30" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="I30" s="58" t="s">
+      <c r="I30" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="J30" s="58" t="s">
+      <c r="J30" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="K30" s="58" t="s">
+      <c r="K30" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="L30" s="58" t="s">
+      <c r="L30" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="M30" s="58" t="s">
+      <c r="M30" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="N30" s="58" t="s">
+      <c r="N30" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="O30" s="59" t="s">
+      <c r="O30" s="61" t="s">
         <v>127</v>
       </c>
       <c r="P30" s="4"/>
@@ -3144,21 +3152,21 @@
       <c r="Z30" s="4"/>
     </row>
     <row r="31" ht="16.5" customHeight="1">
-      <c r="A31" s="60"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="62"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="64"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
@@ -3172,15 +3180,13 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="13">
-        <v>43135.0</v>
-      </c>
-      <c r="C32" s="13">
-        <v>43142.0</v>
-      </c>
+      <c r="B32" s="66">
+        <v>43143.0</v>
+      </c>
+      <c r="C32" s="13"/>
       <c r="D32" s="13">
         <v>43149.0</v>
       </c>
@@ -3230,49 +3236,49 @@
       <c r="Z32" s="4"/>
     </row>
     <row r="33">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H33" s="26" t="s">
+      <c r="H33" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="26" t="s">
+      <c r="I33" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="J33" s="26" t="s">
+      <c r="J33" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="K33" s="26" t="s">
+      <c r="K33" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="L33" s="26" t="s">
+      <c r="L33" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="M33" s="26" t="s">
+      <c r="M33" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="N33" s="26" t="s">
+      <c r="N33" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="O33" s="27" t="s">
+      <c r="O33" s="28" t="s">
         <v>38</v>
       </c>
       <c r="P33" s="4"/>
@@ -3288,49 +3294,49 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="H34" s="29" t="s">
+      <c r="H34" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="I34" s="29" t="s">
+      <c r="I34" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="J34" s="29" t="s">
+      <c r="J34" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="29" t="s">
+      <c r="K34" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="L34" s="29" t="s">
+      <c r="L34" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="M34" s="29" t="s">
+      <c r="M34" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="N34" s="29" t="s">
+      <c r="N34" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="O34" s="30" t="s">
+      <c r="O34" s="31" t="s">
         <v>130</v>
       </c>
       <c r="P34" s="4"/>
@@ -3346,49 +3352,49 @@
       <c r="Z34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="H35" s="32" t="s">
+      <c r="H35" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="I35" s="32" t="s">
+      <c r="I35" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="J35" s="32" t="s">
+      <c r="J35" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="K35" s="32" t="s">
+      <c r="K35" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="L35" s="32" t="s">
+      <c r="L35" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="M35" s="32" t="s">
+      <c r="M35" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="N35" s="32" t="s">
+      <c r="N35" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="O35" s="33" t="s">
+      <c r="O35" s="34" t="s">
         <v>93</v>
       </c>
       <c r="P35" s="4"/>
@@ -3404,49 +3410,49 @@
       <c r="Z35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="35" t="s">
+      <c r="F36" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="G36" s="35" t="s">
+      <c r="G36" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="H36" s="35" t="s">
+      <c r="H36" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="I36" s="35" t="s">
+      <c r="I36" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="J36" s="35" t="s">
+      <c r="J36" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="K36" s="35" t="s">
+      <c r="K36" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="L36" s="35" t="s">
+      <c r="L36" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="M36" s="35" t="s">
+      <c r="M36" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="N36" s="35" t="s">
+      <c r="N36" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="O36" s="36" t="s">
+      <c r="O36" s="37" t="s">
         <v>147</v>
       </c>
       <c r="P36" s="4"/>
@@ -3462,49 +3468,49 @@
       <c r="Z36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="G37" s="35" t="s">
+      <c r="G37" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="H37" s="35" t="s">
+      <c r="H37" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="I37" s="35" t="s">
+      <c r="I37" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="J37" s="35" t="s">
+      <c r="J37" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="K37" s="35" t="s">
+      <c r="K37" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="L37" s="35" t="s">
+      <c r="L37" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="M37" s="35" t="s">
+      <c r="M37" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="N37" s="35" t="s">
+      <c r="N37" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="O37" s="36" t="s">
+      <c r="O37" s="37" t="s">
         <v>156</v>
       </c>
       <c r="P37" s="4"/>
@@ -3520,49 +3526,49 @@
       <c r="Z37" s="4"/>
     </row>
     <row r="38">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="E38" s="50" t="s">
+      <c r="E38" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="F38" s="50" t="s">
+      <c r="F38" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="G38" s="50" t="s">
+      <c r="G38" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="H38" s="50" t="s">
+      <c r="H38" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="I38" s="50" t="s">
+      <c r="I38" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="J38" s="50" t="s">
+      <c r="J38" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="K38" s="50" t="s">
+      <c r="K38" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="L38" s="50" t="s">
+      <c r="L38" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="M38" s="50" t="s">
+      <c r="M38" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="N38" s="50" t="s">
+      <c r="N38" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="O38" s="51" t="s">
+      <c r="O38" s="53" t="s">
         <v>169</v>
       </c>
       <c r="P38" s="4"/>
@@ -3578,49 +3584,49 @@
       <c r="Z38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="53" t="s">
+      <c r="D39" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="E39" s="53" t="s">
+      <c r="E39" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="F39" s="53" t="s">
+      <c r="F39" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="G39" s="53" t="s">
+      <c r="G39" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="H39" s="53" t="s">
+      <c r="H39" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="I39" s="53" t="s">
+      <c r="I39" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="J39" s="53" t="s">
+      <c r="J39" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="K39" s="53" t="s">
+      <c r="K39" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="L39" s="53" t="s">
+      <c r="L39" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="M39" s="53" t="s">
+      <c r="M39" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="N39" s="53" t="s">
+      <c r="N39" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="O39" s="54" t="s">
+      <c r="O39" s="56" t="s">
         <v>171</v>
       </c>
       <c r="P39" s="4"/>
@@ -3636,49 +3642,49 @@
       <c r="Z39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="D40" s="55" t="s">
+      <c r="D40" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="E40" s="55" t="s">
+      <c r="E40" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="F40" s="55" t="s">
+      <c r="F40" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="G40" s="55" t="s">
+      <c r="G40" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="H40" s="55" t="s">
+      <c r="H40" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="I40" s="55" t="s">
+      <c r="I40" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="J40" s="55" t="s">
+      <c r="J40" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="K40" s="55" t="s">
+      <c r="K40" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="L40" s="55" t="s">
+      <c r="L40" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="M40" s="55" t="s">
+      <c r="M40" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="N40" s="55" t="s">
+      <c r="N40" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="O40" s="56" t="s">
+      <c r="O40" s="58" t="s">
         <v>137</v>
       </c>
       <c r="P40" s="4"/>
@@ -3694,49 +3700,49 @@
       <c r="Z40" s="4"/>
     </row>
     <row r="41">
-      <c r="A41" s="64" t="s">
+      <c r="A41" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="E41" s="55" t="s">
+      <c r="E41" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="F41" s="55" t="s">
+      <c r="F41" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="G41" s="55" t="s">
+      <c r="G41" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="H41" s="55" t="s">
+      <c r="H41" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="I41" s="55" t="s">
+      <c r="I41" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="J41" s="55" t="s">
+      <c r="J41" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="K41" s="55" t="s">
+      <c r="K41" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="L41" s="55" t="s">
+      <c r="L41" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="M41" s="55" t="s">
+      <c r="M41" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="N41" s="55" t="s">
+      <c r="N41" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="O41" s="56" t="s">
+      <c r="O41" s="58" t="s">
         <v>177</v>
       </c>
       <c r="P41" s="4"/>
@@ -3752,49 +3758,49 @@
       <c r="Z41" s="4"/>
     </row>
     <row r="42">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="D42" s="66" t="s">
+      <c r="D42" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="E42" s="66" t="s">
+      <c r="E42" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="F42" s="66" t="s">
+      <c r="F42" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="G42" s="66" t="s">
+      <c r="G42" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="H42" s="66" t="s">
+      <c r="H42" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="I42" s="66" t="s">
+      <c r="I42" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="J42" s="66" t="s">
+      <c r="J42" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="K42" s="66" t="s">
+      <c r="K42" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="L42" s="66" t="s">
+      <c r="L42" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="M42" s="66" t="s">
+      <c r="M42" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="N42" s="66" t="s">
+      <c r="N42" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="O42" s="67" t="s">
+      <c r="O42" s="70" t="s">
         <v>164</v>
       </c>
       <c r="P42" s="4"/>
@@ -3810,21 +3816,21 @@
       <c r="Z42" s="4"/>
     </row>
     <row r="43" ht="16.5" customHeight="1">
-      <c r="A43" s="60"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="61"/>
-      <c r="L43" s="61"/>
-      <c r="M43" s="61"/>
-      <c r="N43" s="61"/>
-      <c r="O43" s="62"/>
+      <c r="A43" s="62"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="64"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
@@ -3838,23 +3844,23 @@
       <c r="Z43" s="4"/>
     </row>
     <row r="44">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="68"/>
-      <c r="M44" s="68"/>
-      <c r="N44" s="68"/>
-      <c r="O44" s="69"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="72"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
@@ -3868,49 +3874,49 @@
       <c r="Z44" s="4"/>
     </row>
     <row r="45">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="B45" s="70" t="s">
+      <c r="B45" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="C45" s="70" t="s">
+      <c r="C45" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="D45" s="70" t="s">
+      <c r="D45" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="E45" s="70" t="s">
+      <c r="E45" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="F45" s="70" t="s">
+      <c r="F45" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="G45" s="70" t="s">
+      <c r="G45" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="H45" s="70" t="s">
+      <c r="H45" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="I45" s="70" t="s">
+      <c r="I45" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="J45" s="70" t="s">
+      <c r="J45" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="K45" s="70" t="s">
+      <c r="K45" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="L45" s="70" t="s">
+      <c r="L45" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="M45" s="70" t="s">
+      <c r="M45" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="N45" s="70" t="s">
+      <c r="N45" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="O45" s="71" t="s">
+      <c r="O45" s="74" t="s">
         <v>159</v>
       </c>
       <c r="P45" s="4"/>
@@ -3926,49 +3932,49 @@
       <c r="Z45" s="4"/>
     </row>
     <row r="46">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="E46" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="29" t="s">
+      <c r="F46" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="G46" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="H46" s="29" t="s">
+      <c r="H46" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="I46" s="29" t="s">
+      <c r="I46" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="J46" s="29" t="s">
+      <c r="J46" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="K46" s="29" t="s">
+      <c r="K46" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="L46" s="29" t="s">
+      <c r="L46" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="M46" s="29" t="s">
+      <c r="M46" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="N46" s="29" t="s">
+      <c r="N46" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="O46" s="30" t="s">
+      <c r="O46" s="31" t="s">
         <v>160</v>
       </c>
       <c r="P46" s="4"/>
@@ -3984,49 +3990,49 @@
       <c r="Z46" s="4"/>
     </row>
     <row r="47">
-      <c r="A47" s="72" t="s">
+      <c r="A47" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="76" t="s">
         <v>198</v>
       </c>
-      <c r="C47" s="73" t="s">
+      <c r="C47" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="73" t="s">
+      <c r="D47" s="76" t="s">
         <v>199</v>
       </c>
-      <c r="E47" s="73" t="s">
+      <c r="E47" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="F47" s="73" t="s">
+      <c r="F47" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="G47" s="73" t="s">
+      <c r="G47" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="H47" s="73" t="s">
+      <c r="H47" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="I47" s="73" t="s">
+      <c r="I47" s="76" t="s">
         <v>199</v>
       </c>
-      <c r="J47" s="73" t="s">
+      <c r="J47" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="K47" s="73" t="s">
+      <c r="K47" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="L47" s="73" t="s">
+      <c r="L47" s="76" t="s">
         <v>198</v>
       </c>
-      <c r="M47" s="73" t="s">
+      <c r="M47" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="N47" s="73" t="s">
+      <c r="N47" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="O47" s="74" t="s">
+      <c r="O47" s="77" t="s">
         <v>200</v>
       </c>
       <c r="P47" s="4"/>
@@ -4042,21 +4048,21 @@
       <c r="Z47" s="4"/>
     </row>
     <row r="48">
-      <c r="A48" s="75"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="76"/>
-      <c r="N48" s="76"/>
-      <c r="O48" s="77"/>
+      <c r="A48" s="78"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="79"/>
+      <c r="K48" s="79"/>
+      <c r="L48" s="79"/>
+      <c r="M48" s="79"/>
+      <c r="N48" s="79"/>
+      <c r="O48" s="80"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
@@ -4070,49 +4076,49 @@
       <c r="Z48" s="4"/>
     </row>
     <row r="49">
-      <c r="A49" s="78" t="s">
+      <c r="A49" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="B49" s="79" t="s">
+      <c r="B49" s="82" t="s">
         <v>181</v>
       </c>
-      <c r="C49" s="79" t="s">
+      <c r="C49" s="82" t="s">
         <v>181</v>
       </c>
-      <c r="D49" s="79" t="s">
+      <c r="D49" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="E49" s="79" t="s">
+      <c r="E49" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="F49" s="79" t="s">
+      <c r="F49" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="G49" s="79" t="s">
+      <c r="G49" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="H49" s="79" t="s">
+      <c r="H49" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="I49" s="79" t="s">
+      <c r="I49" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="J49" s="79" t="s">
+      <c r="J49" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="K49" s="79" t="s">
+      <c r="K49" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="L49" s="79" t="s">
+      <c r="L49" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="M49" s="79" t="s">
+      <c r="M49" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="N49" s="80" t="s">
+      <c r="N49" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="O49" s="81" t="s">
+      <c r="O49" s="84" t="s">
         <v>144</v>
       </c>
       <c r="P49" s="4"/>
@@ -4128,49 +4134,49 @@
       <c r="Z49" s="4"/>
     </row>
     <row r="50">
-      <c r="A50" s="82" t="s">
+      <c r="A50" s="85" t="s">
         <v>203</v>
       </c>
-      <c r="B50" s="83" t="s">
+      <c r="B50" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="C50" s="83" t="s">
+      <c r="C50" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="D50" s="83" t="s">
+      <c r="D50" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="E50" s="83" t="s">
+      <c r="E50" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="F50" s="83" t="s">
+      <c r="F50" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="G50" s="83" t="s">
+      <c r="G50" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="H50" s="83" t="s">
+      <c r="H50" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="I50" s="83" t="s">
+      <c r="I50" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="J50" s="83" t="s">
+      <c r="J50" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="K50" s="83" t="s">
+      <c r="K50" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="L50" s="83" t="s">
+      <c r="L50" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="M50" s="83" t="s">
+      <c r="M50" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="N50" s="84" t="s">
+      <c r="N50" s="87" t="s">
         <v>204</v>
       </c>
-      <c r="O50" s="85" t="s">
+      <c r="O50" s="88" t="s">
         <v>204</v>
       </c>
       <c r="P50" s="4"/>
@@ -4186,49 +4192,49 @@
       <c r="Z50" s="4"/>
     </row>
     <row r="51">
-      <c r="A51" s="82" t="s">
+      <c r="A51" s="85" t="s">
         <v>205</v>
       </c>
-      <c r="B51" s="83" t="s">
+      <c r="B51" s="86" t="s">
         <v>206</v>
       </c>
-      <c r="C51" s="83" t="s">
+      <c r="C51" s="86" t="s">
         <v>206</v>
       </c>
-      <c r="D51" s="83" t="s">
+      <c r="D51" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="E51" s="83" t="s">
+      <c r="E51" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="F51" s="83" t="s">
+      <c r="F51" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="G51" s="83" t="s">
+      <c r="G51" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="H51" s="83" t="s">
+      <c r="H51" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="I51" s="83" t="s">
+      <c r="I51" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="J51" s="83" t="s">
+      <c r="J51" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="K51" s="83" t="s">
+      <c r="K51" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="L51" s="83" t="s">
+      <c r="L51" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="M51" s="83" t="s">
+      <c r="M51" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="N51" s="84" t="s">
+      <c r="N51" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="O51" s="85" t="s">
+      <c r="O51" s="88" t="s">
         <v>207</v>
       </c>
       <c r="P51" s="4"/>
@@ -4244,49 +4250,49 @@
       <c r="Z51" s="4"/>
     </row>
     <row r="52">
-      <c r="A52" s="86" t="s">
+      <c r="A52" s="89" t="s">
         <v>205</v>
       </c>
-      <c r="B52" s="87" t="s">
+      <c r="B52" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="87" t="s">
+      <c r="C52" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="87" t="s">
+      <c r="D52" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="E52" s="87" t="s">
+      <c r="E52" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="F52" s="87" t="s">
+      <c r="F52" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="G52" s="87" t="s">
+      <c r="G52" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="H52" s="87" t="s">
+      <c r="H52" s="90" t="s">
         <v>208</v>
       </c>
-      <c r="I52" s="87" t="s">
+      <c r="I52" s="90" t="s">
         <v>208</v>
       </c>
-      <c r="J52" s="87" t="s">
+      <c r="J52" s="90" t="s">
         <v>209</v>
       </c>
-      <c r="K52" s="87" t="s">
+      <c r="K52" s="90" t="s">
         <v>209</v>
       </c>
-      <c r="L52" s="87" t="s">
+      <c r="L52" s="90" t="s">
         <v>209</v>
       </c>
-      <c r="M52" s="87" t="s">
+      <c r="M52" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="N52" s="88" t="s">
+      <c r="N52" s="91" t="s">
         <v>210</v>
       </c>
-      <c r="O52" s="89" t="s">
+      <c r="O52" s="92" t="s">
         <v>210</v>
       </c>
       <c r="P52" s="4"/>
@@ -4302,21 +4308,21 @@
       <c r="Z52" s="4"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="90"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="91"/>
-      <c r="E53" s="91"/>
-      <c r="F53" s="91"/>
-      <c r="G53" s="91"/>
-      <c r="H53" s="91"/>
-      <c r="I53" s="91"/>
-      <c r="J53" s="91"/>
-      <c r="K53" s="91"/>
-      <c r="L53" s="91"/>
-      <c r="M53" s="91"/>
-      <c r="N53" s="91"/>
-      <c r="O53" s="91"/>
+      <c r="A53" s="93"/>
+      <c r="B53" s="94"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="94"/>
+      <c r="F53" s="94"/>
+      <c r="G53" s="94"/>
+      <c r="H53" s="94"/>
+      <c r="I53" s="94"/>
+      <c r="J53" s="94"/>
+      <c r="K53" s="94"/>
+      <c r="L53" s="94"/>
+      <c r="M53" s="94"/>
+      <c r="N53" s="94"/>
+      <c r="O53" s="94"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
@@ -4330,21 +4336,21 @@
       <c r="Z53" s="4"/>
     </row>
     <row r="54" ht="12.0" customHeight="1">
-      <c r="A54" s="92"/>
-      <c r="B54" s="93"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="93"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="93"/>
-      <c r="G54" s="93"/>
-      <c r="H54" s="93"/>
-      <c r="I54" s="93"/>
-      <c r="J54" s="93"/>
-      <c r="K54" s="93"/>
-      <c r="L54" s="93"/>
-      <c r="M54" s="93"/>
-      <c r="N54" s="93"/>
-      <c r="O54" s="93"/>
+      <c r="A54" s="95"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="96"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="96"/>
+      <c r="J54" s="96"/>
+      <c r="K54" s="96"/>
+      <c r="L54" s="96"/>
+      <c r="M54" s="96"/>
+      <c r="N54" s="96"/>
+      <c r="O54" s="96"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>

--- a/roster.xlsx
+++ b/roster.xlsx
@@ -1332,6 +1332,9 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="6" numFmtId="16" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="6" numFmtId="16" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="2" fontId="6" numFmtId="16" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1365,9 +1368,6 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="6" numFmtId="16" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="7" fillId="2" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1710,45 +1710,43 @@
     <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="13">
-        <v>43135.0</v>
+        <v>43146.0</v>
       </c>
       <c r="C4" s="13">
-        <v>43142.0</v>
-      </c>
-      <c r="D4" s="13">
-        <v>43149.0</v>
-      </c>
-      <c r="E4" s="13">
+        <v>43146.0</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14">
         <v>43156.0</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="14">
         <v>43163.0</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="14">
         <v>43170.0</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="14">
         <v>43177.0</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="14">
         <v>43184.0</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="14">
         <v>43189.0</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="14">
         <v>43191.0</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="14">
         <v>43198.0</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="14">
         <v>43205.0</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="14">
         <v>43212.0</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="15">
         <v>43219.0</v>
       </c>
       <c r="P4" s="4"/>
@@ -1764,49 +1762,49 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" ht="16.5" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="18" t="s">
         <v>21</v>
       </c>
       <c r="P5" s="4"/>
@@ -1822,49 +1820,49 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" ht="16.5" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="21" t="s">
         <v>35</v>
       </c>
       <c r="P6" s="4"/>
@@ -1880,21 +1878,21 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" ht="16.5" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="23"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="24"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1908,47 +1906,47 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" ht="16.5" customHeight="1">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="25">
-        <v>43143.0</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13">
-        <v>43149.0</v>
-      </c>
-      <c r="E8" s="13">
+      <c r="B8" s="13">
+        <v>43146.0</v>
+      </c>
+      <c r="C8" s="13">
+        <v>43147.0</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14">
         <v>43156.0</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="14">
         <v>43163.0</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="14">
         <v>43170.0</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="14">
         <v>43177.0</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="14">
         <v>43184.0</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="14">
         <v>43189.0</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="14">
         <v>43191.0</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="14">
         <v>43198.0</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="14">
         <v>43205.0</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="14">
         <v>43212.0</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="15">
         <v>43219.0</v>
       </c>
       <c r="P8" s="4"/>
@@ -2344,12 +2342,12 @@
         <v>60</v>
       </c>
       <c r="B16" s="45">
-        <v>43143.0</v>
-      </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46">
-        <v>43149.0</v>
-      </c>
+        <v>43146.0</v>
+      </c>
+      <c r="C16" s="45">
+        <v>43147.0</v>
+      </c>
+      <c r="D16" s="46"/>
       <c r="E16" s="46">
         <v>43156.0</v>
       </c>
@@ -3184,43 +3182,43 @@
         <v>128</v>
       </c>
       <c r="B32" s="66">
-        <v>43143.0</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13">
-        <v>43149.0</v>
-      </c>
-      <c r="E32" s="13">
+        <v>43146.0</v>
+      </c>
+      <c r="C32" s="13">
+        <v>43147.0</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14">
         <v>43156.0</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="14">
         <v>43163.0</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="14">
         <v>43170.0</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="14">
         <v>43177.0</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="14">
         <v>43184.0</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="14">
         <v>43189.0</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="14">
         <v>43191.0</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="14">
         <v>43198.0</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="14">
         <v>43205.0</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N32" s="14">
         <v>43212.0</v>
       </c>
-      <c r="O32" s="14">
+      <c r="O32" s="15">
         <v>43219.0</v>
       </c>
       <c r="P32" s="4"/>

--- a/roster.xlsx
+++ b/roster.xlsx
@@ -1246,7 +1246,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -1381,9 +1381,6 @@
     </xf>
     <xf borderId="22" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="6" numFmtId="16" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="13" fillId="2" fontId="6" numFmtId="16" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -1823,9 +1820,9 @@
         <v>29</v>
       </c>
       <c r="B8" s="25">
-        <v>42053.0</v>
-      </c>
-      <c r="C8" s="13"/>
+        <v>42055.0</v>
+      </c>
+      <c r="C8" s="25"/>
       <c r="D8" s="13">
         <v>43170.0</v>
       </c>
@@ -2188,35 +2185,35 @@
       <c r="A16" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="45">
-        <v>42053.0</v>
-      </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46">
+      <c r="B16" s="25">
+        <v>42055.0</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="45">
         <v>43170.0</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="45">
         <v>43177.0</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="45">
         <v>43184.0</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="45">
         <v>43189.0</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="45">
         <v>43191.0</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="45">
         <v>43198.0</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="45">
         <v>43205.0</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="45">
         <v>43212.0</v>
       </c>
-      <c r="L16" s="47">
+      <c r="L16" s="46">
         <v>43219.0</v>
       </c>
       <c r="M16" s="4"/>
@@ -2529,17 +2526,17 @@
       <c r="A23" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="50"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="49"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -2556,17 +2553,17 @@
       <c r="A24" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="50"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="49"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -2580,40 +2577,40 @@
       <c r="W24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="F25" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="52" t="s">
+      <c r="H25" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="I25" s="52" t="s">
+      <c r="I25" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="J25" s="52" t="s">
+      <c r="J25" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="K25" s="52" t="s">
+      <c r="K25" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="L25" s="53" t="s">
+      <c r="L25" s="52" t="s">
         <v>97</v>
       </c>
       <c r="M25" s="4"/>
@@ -2629,40 +2626,40 @@
       <c r="W25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="52" t="s">
+      <c r="F26" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="52" t="s">
+      <c r="G26" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="H26" s="52" t="s">
+      <c r="H26" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="I26" s="52" t="s">
+      <c r="I26" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="J26" s="52" t="s">
+      <c r="J26" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="K26" s="52" t="s">
+      <c r="K26" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="L26" s="53" t="s">
+      <c r="L26" s="52" t="s">
         <v>106</v>
       </c>
       <c r="M26" s="4"/>
@@ -2678,40 +2675,40 @@
       <c r="W26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="52" t="s">
+      <c r="E27" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="52" t="s">
+      <c r="F27" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="52" t="s">
+      <c r="G27" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="52" t="s">
+      <c r="H27" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="I27" s="52" t="s">
+      <c r="I27" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="J27" s="52" t="s">
+      <c r="J27" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="K27" s="52" t="s">
+      <c r="K27" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="L27" s="53" t="s">
+      <c r="L27" s="52" t="s">
         <v>81</v>
       </c>
       <c r="M27" s="4"/>
@@ -2727,40 +2724,40 @@
       <c r="W27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="F28" s="55" t="s">
+      <c r="F28" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="H28" s="55" t="s">
+      <c r="H28" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="I28" s="55" t="s">
+      <c r="I28" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="J28" s="55" t="s">
+      <c r="J28" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="K28" s="55" t="s">
+      <c r="K28" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="L28" s="56" t="s">
+      <c r="L28" s="55" t="s">
         <v>110</v>
       </c>
       <c r="M28" s="4"/>
@@ -2776,40 +2773,40 @@
       <c r="W28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="57" t="s">
+      <c r="E29" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="G29" s="57" t="s">
+      <c r="G29" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="H29" s="57" t="s">
+      <c r="H29" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="I29" s="57" t="s">
+      <c r="I29" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="J29" s="57" t="s">
+      <c r="J29" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="K29" s="57" t="s">
+      <c r="K29" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="L29" s="58" t="s">
+      <c r="L29" s="57" t="s">
         <v>116</v>
       </c>
       <c r="M29" s="4"/>
@@ -2825,40 +2822,40 @@
       <c r="W29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="60" t="s">
+      <c r="E30" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="60" t="s">
+      <c r="F30" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="G30" s="60" t="s">
+      <c r="G30" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="60" t="s">
+      <c r="H30" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="I30" s="60" t="s">
+      <c r="I30" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="J30" s="60" t="s">
+      <c r="J30" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="K30" s="60" t="s">
+      <c r="K30" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="L30" s="61" t="s">
+      <c r="L30" s="60" t="s">
         <v>119</v>
       </c>
       <c r="M30" s="4"/>
@@ -2874,18 +2871,18 @@
       <c r="W30" s="4"/>
     </row>
     <row r="31" ht="16.5" customHeight="1">
-      <c r="A31" s="62"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="64"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="63"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -2899,13 +2896,13 @@
       <c r="W31" s="4"/>
     </row>
     <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="64" t="s">
         <v>121</v>
       </c>
       <c r="B32" s="25">
-        <v>42053.0</v>
-      </c>
-      <c r="C32" s="13"/>
+        <v>42055.0</v>
+      </c>
+      <c r="C32" s="25"/>
       <c r="D32" s="13">
         <v>43170.0</v>
       </c>
@@ -3191,40 +3188,40 @@
       <c r="W37" s="4"/>
     </row>
     <row r="38">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="E38" s="52" t="s">
+      <c r="E38" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="F38" s="52" t="s">
+      <c r="F38" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="52" t="s">
+      <c r="G38" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="H38" s="52" t="s">
+      <c r="H38" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="I38" s="52" t="s">
+      <c r="I38" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="J38" s="52" t="s">
+      <c r="J38" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="K38" s="52" t="s">
+      <c r="K38" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="L38" s="53" t="s">
+      <c r="L38" s="52" t="s">
         <v>156</v>
       </c>
       <c r="M38" s="4"/>
@@ -3240,40 +3237,40 @@
       <c r="W38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="55" t="s">
+      <c r="D39" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="E39" s="55" t="s">
+      <c r="E39" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="F39" s="55" t="s">
+      <c r="F39" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="G39" s="55" t="s">
+      <c r="G39" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="H39" s="55" t="s">
+      <c r="H39" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="I39" s="55" t="s">
+      <c r="I39" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="J39" s="55" t="s">
+      <c r="J39" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="K39" s="55" t="s">
+      <c r="K39" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="L39" s="56" t="s">
+      <c r="L39" s="55" t="s">
         <v>159</v>
       </c>
       <c r="M39" s="4"/>
@@ -3289,40 +3286,40 @@
       <c r="W39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="E40" s="57" t="s">
+      <c r="E40" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="F40" s="57" t="s">
+      <c r="F40" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="G40" s="57" t="s">
+      <c r="G40" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="H40" s="57" t="s">
+      <c r="H40" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="I40" s="57" t="s">
+      <c r="I40" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="J40" s="57" t="s">
+      <c r="J40" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="K40" s="57" t="s">
+      <c r="K40" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="L40" s="58" t="s">
+      <c r="L40" s="57" t="s">
         <v>162</v>
       </c>
       <c r="M40" s="4"/>
@@ -3338,40 +3335,40 @@
       <c r="W40" s="4"/>
     </row>
     <row r="41">
-      <c r="A41" s="66" t="s">
+      <c r="A41" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="D41" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="E41" s="57" t="s">
+      <c r="E41" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="F41" s="57" t="s">
+      <c r="F41" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="G41" s="57" t="s">
+      <c r="G41" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="H41" s="57" t="s">
+      <c r="H41" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="I41" s="57" t="s">
+      <c r="I41" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="J41" s="57" t="s">
+      <c r="J41" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="K41" s="57" t="s">
+      <c r="K41" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="L41" s="58" t="s">
+      <c r="L41" s="57" t="s">
         <v>164</v>
       </c>
       <c r="M41" s="4"/>
@@ -3387,40 +3384,40 @@
       <c r="W41" s="4"/>
     </row>
     <row r="42">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="B42" s="68" t="s">
+      <c r="B42" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="68" t="s">
+      <c r="C42" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="D42" s="68" t="s">
+      <c r="D42" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="E42" s="68" t="s">
+      <c r="E42" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="F42" s="68" t="s">
+      <c r="F42" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="G42" s="68" t="s">
+      <c r="G42" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="H42" s="68" t="s">
+      <c r="H42" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="I42" s="68" t="s">
+      <c r="I42" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="J42" s="68" t="s">
+      <c r="J42" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="K42" s="68" t="s">
+      <c r="K42" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="L42" s="69" t="s">
+      <c r="L42" s="68" t="s">
         <v>151</v>
       </c>
       <c r="M42" s="4"/>
@@ -3436,18 +3433,18 @@
       <c r="W42" s="4"/>
     </row>
     <row r="43" ht="16.5" customHeight="1">
-      <c r="A43" s="62"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="64"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="63"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -3464,17 +3461,17 @@
       <c r="A44" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="71"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="70"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
@@ -3491,37 +3488,37 @@
       <c r="A45" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="B45" s="72" t="s">
+      <c r="B45" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="C45" s="72" t="s">
+      <c r="C45" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="D45" s="72" t="s">
+      <c r="D45" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="E45" s="72" t="s">
+      <c r="E45" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="F45" s="72" t="s">
+      <c r="F45" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="G45" s="72" t="s">
+      <c r="G45" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="H45" s="72" t="s">
+      <c r="H45" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="I45" s="72" t="s">
+      <c r="I45" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="J45" s="72" t="s">
+      <c r="J45" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="K45" s="72" t="s">
+      <c r="K45" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="L45" s="73" t="s">
+      <c r="L45" s="72" t="s">
         <v>170</v>
       </c>
       <c r="M45" s="4"/>
@@ -3586,40 +3583,40 @@
       <c r="W46" s="4"/>
     </row>
     <row r="47">
-      <c r="A47" s="74" t="s">
+      <c r="A47" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="B47" s="75" t="s">
+      <c r="B47" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="75" t="s">
+      <c r="C47" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="75" t="s">
+      <c r="D47" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="75" t="s">
+      <c r="E47" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="F47" s="75" t="s">
+      <c r="F47" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="G47" s="75" t="s">
+      <c r="G47" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="H47" s="75" t="s">
+      <c r="H47" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="I47" s="75" t="s">
+      <c r="I47" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="J47" s="75" t="s">
+      <c r="J47" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="K47" s="75" t="s">
+      <c r="K47" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="L47" s="76" t="s">
+      <c r="L47" s="75" t="s">
         <v>185</v>
       </c>
       <c r="M47" s="4"/>
@@ -3635,18 +3632,18 @@
       <c r="W47" s="4"/>
     </row>
     <row r="48">
-      <c r="A48" s="77"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="79"/>
+      <c r="A48" s="76"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="77"/>
+      <c r="L48" s="78"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -3660,40 +3657,40 @@
       <c r="W48" s="4"/>
     </row>
     <row r="49">
-      <c r="A49" s="80" t="s">
+      <c r="A49" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="B49" s="81" t="s">
+      <c r="B49" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C49" s="81" t="s">
+      <c r="C49" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="D49" s="81" t="s">
+      <c r="D49" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="E49" s="81" t="s">
+      <c r="E49" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="F49" s="81" t="s">
+      <c r="F49" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="G49" s="81" t="s">
+      <c r="G49" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="H49" s="81" t="s">
+      <c r="H49" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="I49" s="81" t="s">
+      <c r="I49" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="J49" s="81" t="s">
+      <c r="J49" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="K49" s="82" t="s">
+      <c r="K49" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="L49" s="83" t="s">
+      <c r="L49" s="82" t="s">
         <v>135</v>
       </c>
       <c r="M49" s="4"/>
@@ -3709,40 +3706,40 @@
       <c r="W49" s="4"/>
     </row>
     <row r="50">
-      <c r="A50" s="84" t="s">
+      <c r="A50" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="B50" s="85" t="s">
+      <c r="B50" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="85" t="s">
+      <c r="C50" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="85" t="s">
+      <c r="D50" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="E50" s="85" t="s">
+      <c r="E50" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="85" t="s">
+      <c r="F50" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="G50" s="85" t="s">
+      <c r="G50" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="H50" s="85" t="s">
+      <c r="H50" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="I50" s="85" t="s">
+      <c r="I50" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="J50" s="85" t="s">
+      <c r="J50" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="K50" s="86" t="s">
+      <c r="K50" s="85" t="s">
         <v>191</v>
       </c>
-      <c r="L50" s="87" t="s">
+      <c r="L50" s="86" t="s">
         <v>191</v>
       </c>
       <c r="M50" s="4"/>
@@ -3758,40 +3755,40 @@
       <c r="W50" s="4"/>
     </row>
     <row r="51">
-      <c r="A51" s="84" t="s">
+      <c r="A51" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="B51" s="85" t="s">
+      <c r="B51" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="C51" s="85" t="s">
+      <c r="C51" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="85" t="s">
+      <c r="D51" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="E51" s="85" t="s">
+      <c r="E51" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="F51" s="85" t="s">
+      <c r="F51" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="G51" s="85" t="s">
+      <c r="G51" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="H51" s="85" t="s">
+      <c r="H51" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="I51" s="85" t="s">
+      <c r="I51" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="J51" s="85" t="s">
+      <c r="J51" s="84" t="s">
         <v>193</v>
       </c>
-      <c r="K51" s="86" t="s">
+      <c r="K51" s="85" t="s">
         <v>193</v>
       </c>
-      <c r="L51" s="87" t="s">
+      <c r="L51" s="86" t="s">
         <v>193</v>
       </c>
       <c r="M51" s="4"/>
@@ -3807,40 +3804,40 @@
       <c r="W51" s="4"/>
     </row>
     <row r="52">
-      <c r="A52" s="88" t="s">
+      <c r="A52" s="87" t="s">
         <v>192</v>
       </c>
-      <c r="B52" s="89" t="s">
+      <c r="B52" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="C52" s="89" t="s">
+      <c r="C52" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="89" t="s">
+      <c r="D52" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="89" t="s">
+      <c r="E52" s="88" t="s">
         <v>194</v>
       </c>
-      <c r="F52" s="89" t="s">
+      <c r="F52" s="88" t="s">
         <v>194</v>
       </c>
-      <c r="G52" s="89" t="s">
+      <c r="G52" s="88" t="s">
         <v>195</v>
       </c>
-      <c r="H52" s="89" t="s">
+      <c r="H52" s="88" t="s">
         <v>195</v>
       </c>
-      <c r="I52" s="89" t="s">
+      <c r="I52" s="88" t="s">
         <v>195</v>
       </c>
-      <c r="J52" s="89" t="s">
+      <c r="J52" s="88" t="s">
         <v>196</v>
       </c>
-      <c r="K52" s="90" t="s">
+      <c r="K52" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="L52" s="91" t="s">
+      <c r="L52" s="90" t="s">
         <v>196</v>
       </c>
       <c r="M52" s="4"/>
@@ -3856,18 +3853,18 @@
       <c r="W52" s="4"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="92"/>
-      <c r="B53" s="93"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="93"/>
-      <c r="I53" s="93"/>
-      <c r="J53" s="93"/>
-      <c r="K53" s="93"/>
-      <c r="L53" s="93"/>
+      <c r="A53" s="91"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="92"/>
+      <c r="G53" s="92"/>
+      <c r="H53" s="92"/>
+      <c r="I53" s="92"/>
+      <c r="J53" s="92"/>
+      <c r="K53" s="92"/>
+      <c r="L53" s="92"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
@@ -3881,18 +3878,18 @@
       <c r="W53" s="4"/>
     </row>
     <row r="54" ht="12.0" customHeight="1">
-      <c r="A54" s="94"/>
-      <c r="B54" s="95"/>
-      <c r="C54" s="95"/>
-      <c r="D54" s="95"/>
-      <c r="E54" s="95"/>
-      <c r="F54" s="95"/>
-      <c r="G54" s="95"/>
-      <c r="H54" s="95"/>
-      <c r="I54" s="95"/>
-      <c r="J54" s="95"/>
-      <c r="K54" s="95"/>
-      <c r="L54" s="95"/>
+      <c r="A54" s="93"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="94"/>
+      <c r="I54" s="94"/>
+      <c r="J54" s="94"/>
+      <c r="K54" s="94"/>
+      <c r="L54" s="94"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>

--- a/roster.xlsx
+++ b/roster.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="195">
   <si>
     <t>Helensburgh &amp; Stanwell Park Combined Service Term 1 Roster 2018</t>
   </si>
@@ -100,7 +100,7 @@
     <t>Ecclesiastes 1:1-11</t>
   </si>
   <si>
-    <t>Classic Church</t>
+    <t>Classic Churc</t>
   </si>
   <si>
     <t>Preacher</t>
@@ -277,13 +277,13 @@
     <t>Little Sheep</t>
   </si>
   <si>
-    <t>Counsell</t>
+    <t>Alder</t>
   </si>
   <si>
-    <t>Geyer</t>
+    <t>Counsell and Donovan</t>
   </si>
   <si>
-    <t>Kirby and Quist</t>
+    <t>R&amp;L Morgan</t>
   </si>
   <si>
     <t>Barker and Jefferson</t>
@@ -292,16 +292,10 @@
     <t>Lang</t>
   </si>
   <si>
-    <t>R&amp;L Morgan</t>
+    <t>Croft</t>
   </si>
   <si>
-    <t>Alder</t>
-  </si>
-  <si>
-    <t>Counsell and Donovan</t>
-  </si>
-  <si>
-    <t>Croft</t>
+    <t>Geyer</t>
   </si>
   <si>
     <t>Gilbett and Lee</t>
@@ -376,7 +370,7 @@
     <t>A. Geyer</t>
   </si>
   <si>
-    <t>Night Church</t>
+    <t>Night Churc</t>
   </si>
   <si>
     <t>M. Johnston</t>
@@ -1246,7 +1240,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -1383,6 +1377,9 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="13" fillId="2" fontId="6" numFmtId="16" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="2" fontId="6" numFmtId="16" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="2" fontId="6" numFmtId="16" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1399,6 +1396,9 @@
     </xf>
     <xf borderId="15" fillId="9" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="9" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="16" fillId="9" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1547,6 +1547,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
@@ -1819,9 +1820,7 @@
       <c r="A8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="25">
-        <v>42055.0</v>
-      </c>
+      <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="13">
         <v>43170.0</v>
@@ -2186,34 +2185,34 @@
         <v>53</v>
       </c>
       <c r="B16" s="25">
-        <v>42055.0</v>
-      </c>
-      <c r="C16" s="25"/>
+        <v>42432.0</v>
+      </c>
+      <c r="C16" s="25">
+        <v>42433.0</v>
+      </c>
       <c r="D16" s="45">
-        <v>43170.0</v>
-      </c>
-      <c r="E16" s="45">
-        <v>43177.0</v>
-      </c>
-      <c r="F16" s="45">
+        <v>42434.0</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46">
         <v>43184.0</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="46">
         <v>43189.0</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="46">
         <v>43191.0</v>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="46">
         <v>43198.0</v>
       </c>
-      <c r="J16" s="45">
+      <c r="J16" s="46">
         <v>43205.0</v>
       </c>
-      <c r="K16" s="45">
+      <c r="K16" s="46">
         <v>43212.0</v>
       </c>
-      <c r="L16" s="46">
+      <c r="L16" s="47">
         <v>43219.0</v>
       </c>
       <c r="M16" s="4"/>
@@ -2526,17 +2525,17 @@
       <c r="A23" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="49"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="50"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -2553,17 +2552,17 @@
       <c r="A24" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="49"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="50"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -2577,41 +2576,41 @@
       <c r="W24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="51" t="s">
+      <c r="F25" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="51" t="s">
+      <c r="K25" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="I25" s="51" t="s">
+      <c r="L25" s="54" t="s">
         <v>95</v>
-      </c>
-      <c r="J25" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="K25" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="L25" s="52" t="s">
-        <v>97</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -2626,41 +2625,41 @@
       <c r="W25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="F26" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="51" t="s">
+      <c r="G26" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="51" t="s">
+      <c r="H26" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="J26" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="H26" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="I26" s="51" t="s">
+      <c r="K26" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="J26" s="51" t="s">
+      <c r="L26" s="54" t="s">
         <v>104</v>
-      </c>
-      <c r="K26" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="L26" s="52" t="s">
-        <v>106</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -2675,40 +2674,40 @@
       <c r="W26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="51" t="s">
+      <c r="D27" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" s="51" t="s">
+      <c r="E27" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="51" t="s">
+      <c r="H27" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="I27" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="J27" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="K27" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="L27" s="52" t="s">
+      <c r="K27" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="L27" s="54" t="s">
         <v>81</v>
       </c>
       <c r="M27" s="4"/>
@@ -2724,41 +2723,41 @@
       <c r="W27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="D28" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="E28" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="F28" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="54" t="s">
+      <c r="H28" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="G28" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="H28" s="54" t="s">
+      <c r="J28" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="I28" s="54" t="s">
+      <c r="K28" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="J28" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="K28" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="L28" s="55" t="s">
-        <v>110</v>
+      <c r="L28" s="57" t="s">
+        <v>108</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -2773,41 +2772,41 @@
       <c r="W28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="E29" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="G29" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="56" t="s">
+      <c r="H29" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="G29" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="56" t="s">
+      <c r="I29" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="J29" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="I29" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="J29" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="K29" s="56" t="s">
+      <c r="K29" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="L29" s="57" t="s">
-        <v>116</v>
+      <c r="L29" s="59" t="s">
+        <v>114</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -2822,41 +2821,41 @@
       <c r="W29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="59" t="s">
+      <c r="F30" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="G30" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30" s="59" t="s">
+      <c r="I30" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="J30" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="K30" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="I30" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="J30" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="K30" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="L30" s="60" t="s">
-        <v>119</v>
+      <c r="L30" s="62" t="s">
+        <v>117</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -2871,18 +2870,18 @@
       <c r="W30" s="4"/>
     </row>
     <row r="31" ht="16.5" customHeight="1">
-      <c r="A31" s="61"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="63"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="65"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -2896,12 +2895,10 @@
       <c r="W31" s="4"/>
     </row>
     <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" s="25">
-        <v>42055.0</v>
-      </c>
+      <c r="A32" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="25"/>
       <c r="C32" s="25"/>
       <c r="D32" s="13">
         <v>43170.0</v>
@@ -2999,16 +2996,16 @@
         <v>33</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E34" s="30" t="s">
         <v>33</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G34" s="30" t="s">
         <v>31</v>
@@ -3017,7 +3014,7 @@
         <v>31</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J34" s="30" t="s">
         <v>33</v>
@@ -3026,7 +3023,7 @@
         <v>33</v>
       </c>
       <c r="L34" s="31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -3045,34 +3042,34 @@
         <v>37</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C35" s="33" t="s">
         <v>84</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G35" s="33" t="s">
         <v>27</v>
       </c>
       <c r="H35" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I35" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J35" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K35" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L35" s="34" t="s">
         <v>84</v>
@@ -3091,40 +3088,40 @@
     </row>
     <row r="36">
       <c r="A36" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="D36" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="E36" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="F36" s="36" t="s">
         <v>132</v>
-      </c>
-      <c r="E36" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="F36" s="36" t="s">
-        <v>134</v>
       </c>
       <c r="G36" s="36" t="s">
         <v>27</v>
       </c>
       <c r="H36" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="I36" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="J36" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="I36" s="36" t="s">
+      <c r="K36" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="L36" s="37" t="s">
         <v>136</v>
-      </c>
-      <c r="J36" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="K36" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="L36" s="37" t="s">
-        <v>138</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -3143,37 +3140,37 @@
         <v>73</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E37" s="36" t="s">
         <v>85</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G37" s="36" t="s">
         <v>27</v>
       </c>
       <c r="H37" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="I37" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="J37" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="I37" s="36" t="s">
+      <c r="K37" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="J37" s="36" t="s">
+      <c r="L37" s="37" t="s">
         <v>144</v>
-      </c>
-      <c r="K37" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L37" s="37" t="s">
-        <v>146</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -3188,41 +3185,41 @@
       <c r="W37" s="4"/>
     </row>
     <row r="38">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="E38" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="F38" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="E38" s="51" t="s">
+      <c r="G38" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="F38" s="51" t="s">
+      <c r="H38" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="51" t="s">
+      <c r="I38" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="H38" s="51" t="s">
+      <c r="J38" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="I38" s="51" t="s">
+      <c r="K38" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="L38" s="54" t="s">
         <v>154</v>
-      </c>
-      <c r="J38" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="K38" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="L38" s="52" t="s">
-        <v>156</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -3237,41 +3234,41 @@
       <c r="W38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="B39" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="D39" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="E39" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="F39" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="G39" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="H39" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="I39" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="J39" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="K39" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="L39" s="55" t="s">
-        <v>159</v>
+      <c r="D39" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="G39" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="H39" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="J39" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="K39" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="L39" s="57" t="s">
+        <v>157</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -3286,41 +3283,41 @@
       <c r="W39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="56" t="s">
+      <c r="D40" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="F40" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D40" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" s="56" t="s">
+      <c r="G40" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F40" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="G40" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="H40" s="56" t="s">
+      <c r="H40" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="I40" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="J40" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="K40" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="I40" s="56" t="s">
-        <v>161</v>
-      </c>
-      <c r="J40" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="K40" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="L40" s="57" t="s">
-        <v>162</v>
+      <c r="L40" s="59" t="s">
+        <v>160</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -3335,41 +3332,41 @@
       <c r="W40" s="4"/>
     </row>
     <row r="41">
-      <c r="A41" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="56" t="s">
+      <c r="A41" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="E41" s="56" t="s">
-        <v>161</v>
-      </c>
-      <c r="F41" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="G41" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="H41" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="I41" s="56" t="s">
+      <c r="H41" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="I41" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="J41" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="K41" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="J41" s="56" t="s">
-        <v>161</v>
-      </c>
-      <c r="K41" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="L41" s="57" t="s">
-        <v>164</v>
+      <c r="L41" s="59" t="s">
+        <v>162</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -3384,41 +3381,41 @@
       <c r="W41" s="4"/>
     </row>
     <row r="42">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="B42" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" s="67" t="s">
+      <c r="E42" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="G42" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="H42" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="D42" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="E42" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="F42" s="67" t="s">
-        <v>170</v>
-      </c>
-      <c r="G42" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="H42" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="I42" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="J42" s="67" t="s">
-        <v>152</v>
-      </c>
-      <c r="K42" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="L42" s="68" t="s">
-        <v>151</v>
+      <c r="I42" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="J42" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="K42" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="L42" s="70" t="s">
+        <v>149</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -3433,18 +3430,18 @@
       <c r="W42" s="4"/>
     </row>
     <row r="43" ht="16.5" customHeight="1">
-      <c r="A43" s="61"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="63"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="65"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -3459,19 +3456,19 @@
     </row>
     <row r="44">
       <c r="A44" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="70"/>
+        <v>171</v>
+      </c>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="72"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
@@ -3486,40 +3483,40 @@
     </row>
     <row r="45">
       <c r="A45" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="B45" s="71" t="s">
+      <c r="D45" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="C45" s="71" t="s">
+      <c r="F45" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="D45" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" s="71" t="s">
+      <c r="G45" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="F45" s="71" t="s">
+      <c r="H45" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="I45" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="G45" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="H45" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="I45" s="71" t="s">
-        <v>180</v>
-      </c>
-      <c r="J45" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="K45" s="71" t="s">
+      <c r="J45" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="L45" s="72" t="s">
-        <v>170</v>
+      <c r="K45" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="L45" s="74" t="s">
+        <v>168</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
@@ -3535,40 +3532,40 @@
     </row>
     <row r="46">
       <c r="A46" s="29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B46" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E46" s="30" t="s">
         <v>49</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G46" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H46" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I46" s="30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J46" s="30" t="s">
         <v>38</v>
       </c>
       <c r="K46" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L46" s="31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
@@ -3583,41 +3580,41 @@
       <c r="W46" s="4"/>
     </row>
     <row r="47">
-      <c r="A47" s="73" t="s">
+      <c r="A47" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="B47" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" s="74" t="s">
+      <c r="G47" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="H47" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="I47" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="F47" s="74" t="s">
-        <v>186</v>
-      </c>
-      <c r="G47" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="H47" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="I47" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="J47" s="74" t="s">
+      <c r="J47" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="K47" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="L47" s="75" t="s">
-        <v>185</v>
+      <c r="K47" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="L47" s="77" t="s">
+        <v>183</v>
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
@@ -3632,18 +3629,18 @@
       <c r="W47" s="4"/>
     </row>
     <row r="48">
-      <c r="A48" s="76"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="77"/>
-      <c r="K48" s="77"/>
-      <c r="L48" s="78"/>
+      <c r="A48" s="78"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="79"/>
+      <c r="K48" s="79"/>
+      <c r="L48" s="80"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -3657,41 +3654,41 @@
       <c r="W48" s="4"/>
     </row>
     <row r="49">
-      <c r="A49" s="79" t="s">
-        <v>188</v>
-      </c>
-      <c r="B49" s="80" t="s">
+      <c r="A49" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="B49" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="E49" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="C49" s="80" t="s">
-        <v>189</v>
-      </c>
-      <c r="D49" s="80" t="s">
-        <v>189</v>
-      </c>
-      <c r="E49" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="F49" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="G49" s="80" t="s">
+      <c r="F49" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="G49" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="H49" s="80" t="s">
+      <c r="H49" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="I49" s="80" t="s">
+      <c r="I49" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="J49" s="80" t="s">
-        <v>135</v>
-      </c>
-      <c r="K49" s="81" t="s">
-        <v>135</v>
-      </c>
-      <c r="L49" s="82" t="s">
-        <v>135</v>
+      <c r="J49" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="K49" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="L49" s="84" t="s">
+        <v>133</v>
       </c>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
@@ -3706,41 +3703,41 @@
       <c r="W49" s="4"/>
     </row>
     <row r="50">
-      <c r="A50" s="83" t="s">
-        <v>190</v>
-      </c>
-      <c r="B50" s="84" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="84" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" s="84" t="s">
-        <v>152</v>
-      </c>
-      <c r="E50" s="84" t="s">
-        <v>152</v>
-      </c>
-      <c r="F50" s="84" t="s">
-        <v>152</v>
-      </c>
-      <c r="G50" s="84" t="s">
-        <v>152</v>
-      </c>
-      <c r="H50" s="84" t="s">
-        <v>191</v>
-      </c>
-      <c r="I50" s="84" t="s">
-        <v>191</v>
-      </c>
-      <c r="J50" s="84" t="s">
-        <v>191</v>
-      </c>
-      <c r="K50" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="L50" s="86" t="s">
-        <v>191</v>
+      <c r="A50" s="85" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="H50" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="I50" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="J50" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="K50" s="87" t="s">
+        <v>189</v>
+      </c>
+      <c r="L50" s="88" t="s">
+        <v>189</v>
       </c>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
@@ -3755,41 +3752,41 @@
       <c r="W50" s="4"/>
     </row>
     <row r="51">
-      <c r="A51" s="83" t="s">
-        <v>192</v>
-      </c>
-      <c r="B51" s="84" t="s">
-        <v>163</v>
-      </c>
-      <c r="C51" s="84" t="s">
+      <c r="A51" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="84" t="s">
+      <c r="D51" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="E51" s="84" t="s">
+      <c r="E51" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="F51" s="84" t="s">
+      <c r="F51" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="G51" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="H51" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="I51" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="J51" s="84" t="s">
-        <v>193</v>
-      </c>
-      <c r="K51" s="85" t="s">
-        <v>193</v>
-      </c>
-      <c r="L51" s="86" t="s">
-        <v>193</v>
+      <c r="G51" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="H51" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="I51" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="J51" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="K51" s="87" t="s">
+        <v>191</v>
+      </c>
+      <c r="L51" s="88" t="s">
+        <v>191</v>
       </c>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
@@ -3804,41 +3801,41 @@
       <c r="W51" s="4"/>
     </row>
     <row r="52">
-      <c r="A52" s="87" t="s">
+      <c r="A52" s="89" t="s">
+        <v>190</v>
+      </c>
+      <c r="B52" s="90" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="90" t="s">
         <v>192</v>
       </c>
-      <c r="B52" s="88" t="s">
-        <v>146</v>
-      </c>
-      <c r="C52" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="88" t="s">
+      <c r="F52" s="90" t="s">
+        <v>192</v>
+      </c>
+      <c r="G52" s="90" t="s">
+        <v>193</v>
+      </c>
+      <c r="H52" s="90" t="s">
+        <v>193</v>
+      </c>
+      <c r="I52" s="90" t="s">
+        <v>193</v>
+      </c>
+      <c r="J52" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="F52" s="88" t="s">
+      <c r="K52" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="G52" s="88" t="s">
-        <v>195</v>
-      </c>
-      <c r="H52" s="88" t="s">
-        <v>195</v>
-      </c>
-      <c r="I52" s="88" t="s">
-        <v>195</v>
-      </c>
-      <c r="J52" s="88" t="s">
-        <v>196</v>
-      </c>
-      <c r="K52" s="89" t="s">
-        <v>196</v>
-      </c>
-      <c r="L52" s="90" t="s">
-        <v>196</v>
+      <c r="L52" s="92" t="s">
+        <v>194</v>
       </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
@@ -3853,18 +3850,18 @@
       <c r="W52" s="4"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="91"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="92"/>
-      <c r="J53" s="92"/>
-      <c r="K53" s="92"/>
-      <c r="L53" s="92"/>
+      <c r="A53" s="93"/>
+      <c r="B53" s="94"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="94"/>
+      <c r="F53" s="94"/>
+      <c r="G53" s="94"/>
+      <c r="H53" s="94"/>
+      <c r="I53" s="94"/>
+      <c r="J53" s="94"/>
+      <c r="K53" s="94"/>
+      <c r="L53" s="94"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
@@ -3878,18 +3875,18 @@
       <c r="W53" s="4"/>
     </row>
     <row r="54" ht="12.0" customHeight="1">
-      <c r="A54" s="93"/>
-      <c r="B54" s="94"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="94"/>
-      <c r="K54" s="94"/>
-      <c r="L54" s="94"/>
+      <c r="A54" s="95"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="96"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="96"/>
+      <c r="J54" s="96"/>
+      <c r="K54" s="96"/>
+      <c r="L54" s="96"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>

--- a/roster.xlsx
+++ b/roster.xlsx
@@ -121,7 +121,7 @@
     <t>B. Senescall</t>
   </si>
   <si>
-    <t>Welcome</t>
+    <t>Welcomer</t>
   </si>
   <si>
     <t>C&amp;G Hammonds</t>
@@ -1180,7 +1180,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -1292,6 +1292,9 @@
     <xf borderId="17" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="15" fillId="2" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="18" fillId="7" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1320,12 +1323,15 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="15" fillId="9" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="16" fillId="9" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="17" fillId="9" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="9" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="15" fillId="7" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1746,7 +1752,9 @@
       <c r="B8" s="13">
         <v>41400.0</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="13">
+        <v>41407.0</v>
+      </c>
       <c r="D8" s="13">
         <v>41414.0</v>
       </c>
@@ -1978,7 +1986,7 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="37" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="29" t="s">
@@ -2026,34 +2034,34 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="40" t="s">
         <v>39</v>
       </c>
       <c r="K14" s="4"/>
@@ -2074,16 +2082,16 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -2102,13 +2110,15 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="13">
         <v>41400.0</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="13">
+        <v>41407.0</v>
+      </c>
       <c r="D16" s="13">
         <v>41414.0</v>
       </c>
@@ -2439,15 +2449,15 @@
       <c r="A23" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -2469,15 +2479,15 @@
       <c r="A24" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="46"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -2496,34 +2506,34 @@
       <c r="Z24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="47" t="s">
+      <c r="F25" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="47" t="s">
+      <c r="G25" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="H25" s="47" t="s">
+      <c r="H25" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="47" t="s">
+      <c r="I25" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="J25" s="48" t="s">
+      <c r="J25" s="49" t="s">
         <v>79</v>
       </c>
       <c r="K25" s="4"/>
@@ -2544,34 +2554,34 @@
       <c r="Z25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="47" t="s">
+      <c r="D26" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="H26" s="47" t="s">
+      <c r="H26" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="47" t="s">
+      <c r="I26" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="48" t="s">
+      <c r="J26" s="49" t="s">
         <v>85</v>
       </c>
       <c r="K26" s="4"/>
@@ -2592,34 +2602,34 @@
       <c r="Z26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="H27" s="47" t="s">
+      <c r="H27" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="47" t="s">
+      <c r="I27" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="48" t="s">
+      <c r="J27" s="49" t="s">
         <v>69</v>
       </c>
       <c r="K27" s="4"/>
@@ -2640,34 +2650,34 @@
       <c r="Z27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="I28" s="50" t="s">
+      <c r="I28" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="J28" s="51" t="s">
+      <c r="J28" s="53" t="s">
         <v>91</v>
       </c>
       <c r="K28" s="4"/>
@@ -2688,34 +2698,34 @@
       <c r="Z28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="52" t="s">
+      <c r="E29" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="52" t="s">
+      <c r="F29" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="52" t="s">
+      <c r="G29" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="H29" s="52" t="s">
+      <c r="H29" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="I29" s="52" t="s">
+      <c r="I29" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="J29" s="53" t="s">
+      <c r="J29" s="55" t="s">
         <v>96</v>
       </c>
       <c r="K29" s="4"/>
@@ -2736,34 +2746,34 @@
       <c r="Z29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D30" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="55" t="s">
+      <c r="F30" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="55" t="s">
+      <c r="G30" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="H30" s="55" t="s">
+      <c r="H30" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="55" t="s">
+      <c r="I30" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="J30" s="56" t="s">
+      <c r="J30" s="58" t="s">
         <v>83</v>
       </c>
       <c r="K30" s="4"/>
@@ -2784,16 +2794,16 @@
       <c r="Z30" s="4"/>
     </row>
     <row r="31" ht="16.5" customHeight="1">
-      <c r="A31" s="57"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="59"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="61"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -2812,13 +2822,15 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="62" t="s">
         <v>102</v>
       </c>
       <c r="B32" s="13">
         <v>41400.0</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="13">
+        <v>41407.0</v>
+      </c>
       <c r="D32" s="13">
         <v>41414.0</v>
       </c>
@@ -3098,34 +3110,34 @@
       <c r="Z37" s="4"/>
     </row>
     <row r="38">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="E38" s="47" t="s">
+      <c r="E38" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="F38" s="47" t="s">
+      <c r="F38" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="G38" s="47" t="s">
+      <c r="G38" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="H38" s="47" t="s">
+      <c r="H38" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="I38" s="47" t="s">
+      <c r="I38" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="J38" s="48" t="s">
+      <c r="J38" s="49" t="s">
         <v>135</v>
       </c>
       <c r="K38" s="4"/>
@@ -3146,34 +3158,34 @@
       <c r="Z38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="E39" s="50" t="s">
+      <c r="E39" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="F39" s="50" t="s">
+      <c r="F39" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="G39" s="50" t="s">
+      <c r="G39" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="H39" s="50" t="s">
+      <c r="H39" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="I39" s="50" t="s">
+      <c r="I39" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="J39" s="51" t="s">
+      <c r="J39" s="53" t="s">
         <v>137</v>
       </c>
       <c r="K39" s="4"/>
@@ -3194,34 +3206,34 @@
       <c r="Z39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="52" t="s">
+      <c r="D40" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="E40" s="52" t="s">
+      <c r="E40" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="F40" s="52" t="s">
+      <c r="F40" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="G40" s="52" t="s">
+      <c r="G40" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="H40" s="52" t="s">
+      <c r="H40" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="I40" s="52" t="s">
+      <c r="I40" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="J40" s="53" t="s">
+      <c r="J40" s="55" t="s">
         <v>140</v>
       </c>
       <c r="K40" s="4"/>
@@ -3242,34 +3254,34 @@
       <c r="Z40" s="4"/>
     </row>
     <row r="41">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C41" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="E41" s="52" t="s">
+      <c r="E41" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="F41" s="52" t="s">
+      <c r="F41" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="G41" s="52" t="s">
+      <c r="G41" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="H41" s="52" t="s">
+      <c r="H41" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="I41" s="52" t="s">
+      <c r="I41" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="J41" s="53" t="s">
+      <c r="J41" s="55" t="s">
         <v>145</v>
       </c>
       <c r="K41" s="4"/>
@@ -3290,34 +3302,34 @@
       <c r="Z41" s="4"/>
     </row>
     <row r="42">
-      <c r="A42" s="61" t="s">
+      <c r="A42" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="62" t="s">
+      <c r="C42" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="62" t="s">
+      <c r="D42" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="E42" s="62" t="s">
+      <c r="E42" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="F42" s="62" t="s">
+      <c r="F42" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="G42" s="62" t="s">
+      <c r="G42" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="62" t="s">
+      <c r="H42" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="I42" s="62" t="s">
+      <c r="I42" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="J42" s="63" t="s">
+      <c r="J42" s="65" t="s">
         <v>148</v>
       </c>
       <c r="K42" s="4"/>
@@ -3338,16 +3350,16 @@
       <c r="Z42" s="4"/>
     </row>
     <row r="43" ht="16.5" customHeight="1">
-      <c r="A43" s="57"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="59"/>
+      <c r="A43" s="59"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="61"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -3369,15 +3381,15 @@
       <c r="A44" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="65"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="67"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
@@ -3399,31 +3411,31 @@
       <c r="A45" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="C45" s="66" t="s">
+      <c r="C45" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="D45" s="66" t="s">
+      <c r="D45" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="E45" s="66" t="s">
+      <c r="E45" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="F45" s="66" t="s">
+      <c r="F45" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="G45" s="66" t="s">
+      <c r="G45" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="H45" s="66" t="s">
+      <c r="H45" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="I45" s="66" t="s">
+      <c r="I45" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="J45" s="67" t="s">
+      <c r="J45" s="69" t="s">
         <v>158</v>
       </c>
       <c r="K45" s="4"/>
@@ -3492,34 +3504,34 @@
       <c r="Z46" s="4"/>
     </row>
     <row r="47">
-      <c r="A47" s="68" t="s">
+      <c r="A47" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="B47" s="69" t="s">
+      <c r="B47" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="69" t="s">
+      <c r="C47" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="D47" s="69" t="s">
+      <c r="D47" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="69" t="s">
+      <c r="E47" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="F47" s="69" t="s">
+      <c r="F47" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="G47" s="69" t="s">
+      <c r="G47" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="H47" s="69" t="s">
+      <c r="H47" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="I47" s="69" t="s">
+      <c r="I47" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="J47" s="70" t="s">
+      <c r="J47" s="72" t="s">
         <v>165</v>
       </c>
       <c r="K47" s="4"/>
@@ -3540,16 +3552,16 @@
       <c r="Z47" s="4"/>
     </row>
     <row r="48">
-      <c r="A48" s="71"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="73"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="75"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -3568,34 +3580,34 @@
       <c r="Z48" s="4"/>
     </row>
     <row r="49">
-      <c r="A49" s="74" t="s">
+      <c r="A49" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="B49" s="75" t="s">
+      <c r="B49" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="75" t="s">
+      <c r="C49" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="75" t="s">
+      <c r="D49" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="E49" s="75" t="s">
+      <c r="E49" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="F49" s="75" t="s">
+      <c r="F49" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="G49" s="75" t="s">
+      <c r="G49" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="H49" s="75" t="s">
+      <c r="H49" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="I49" s="76" t="s">
+      <c r="I49" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="J49" s="77" t="s">
+      <c r="J49" s="79" t="s">
         <v>168</v>
       </c>
       <c r="K49" s="4"/>
@@ -3616,34 +3628,34 @@
       <c r="Z49" s="4"/>
     </row>
     <row r="50">
-      <c r="A50" s="78" t="s">
+      <c r="A50" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="B50" s="79" t="s">
+      <c r="B50" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="C50" s="79" t="s">
+      <c r="C50" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="D50" s="79" t="s">
+      <c r="D50" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="E50" s="79" t="s">
+      <c r="E50" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="F50" s="79" t="s">
+      <c r="F50" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="G50" s="79" t="s">
+      <c r="G50" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="H50" s="79" t="s">
+      <c r="H50" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="I50" s="80" t="s">
+      <c r="I50" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="J50" s="81" t="s">
+      <c r="J50" s="83" t="s">
         <v>171</v>
       </c>
       <c r="K50" s="4"/>
@@ -3664,34 +3676,34 @@
       <c r="Z50" s="4"/>
     </row>
     <row r="51">
-      <c r="A51" s="78" t="s">
+      <c r="A51" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="B51" s="79" t="s">
+      <c r="B51" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="79" t="s">
+      <c r="C51" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="79" t="s">
+      <c r="D51" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="E51" s="79" t="s">
+      <c r="E51" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="F51" s="79" t="s">
+      <c r="F51" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="G51" s="79" t="s">
+      <c r="G51" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="H51" s="79" t="s">
+      <c r="H51" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="I51" s="80" t="s">
+      <c r="I51" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="J51" s="81" t="s">
+      <c r="J51" s="83" t="s">
         <v>174</v>
       </c>
       <c r="K51" s="4"/>
@@ -3712,34 +3724,34 @@
       <c r="Z51" s="4"/>
     </row>
     <row r="52">
-      <c r="A52" s="82" t="s">
+      <c r="A52" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="B52" s="83" t="s">
+      <c r="B52" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="C52" s="83" t="s">
+      <c r="C52" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="83" t="s">
+      <c r="D52" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="E52" s="83" t="s">
+      <c r="E52" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="F52" s="83" t="s">
+      <c r="F52" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="G52" s="83" t="s">
+      <c r="G52" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="H52" s="83" t="s">
+      <c r="H52" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="I52" s="84" t="s">
+      <c r="I52" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="J52" s="85" t="s">
+      <c r="J52" s="87" t="s">
         <v>108</v>
       </c>
       <c r="K52" s="4"/>
@@ -3760,16 +3772,16 @@
       <c r="Z52" s="4"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="86"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="87"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
-      <c r="H53" s="87"/>
-      <c r="I53" s="87"/>
-      <c r="J53" s="87"/>
+      <c r="A53" s="88"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="89"/>
+      <c r="G53" s="89"/>
+      <c r="H53" s="89"/>
+      <c r="I53" s="89"/>
+      <c r="J53" s="89"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
@@ -3788,16 +3800,16 @@
       <c r="Z53" s="4"/>
     </row>
     <row r="54" ht="12.0" customHeight="1">
-      <c r="A54" s="88"/>
-      <c r="B54" s="89"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="89"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="89"/>
-      <c r="I54" s="89"/>
-      <c r="J54" s="89"/>
+      <c r="A54" s="90"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="91"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
